--- a/Phân vùng tương đương_Nguyễn Anh Khôi.xlsx
+++ b/Phân vùng tương đương_Nguyễn Anh Khôi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HCMUNRE_KiemThu\LAB2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1E1C4C-F028-4C41-9776-18BC04247939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFC4585-4B5E-4FA8-AE1A-406800C3783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A0DC667A-CB4A-4EE8-AD21-B83D8530948B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{A0DC667A-CB4A-4EE8-AD21-B83D8530948B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bai1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Bai3" sheetId="3" r:id="rId3"/>
     <sheet name="Bai4" sheetId="4" r:id="rId4"/>
     <sheet name="Bai5" sheetId="5" r:id="rId5"/>
+    <sheet name="Bai6" sheetId="6" r:id="rId6"/>
+    <sheet name="Bai7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="243">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -614,6 +616,211 @@
   </si>
   <si>
     <t>Nhập ngày không phải số nguyên</t>
+  </si>
+  <si>
+    <t>Kiểm thử ô text chỉ cho nhập số nguyên với độ dài ký tự thuộc [1–10] hoặc [20–30]</t>
+  </si>
+  <si>
+    <t>Người dùng truy cập được vào hệ thống</t>
+  </si>
+  <si>
+    <t>Ô text nhập liệu hiển thị và hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Hệ thống có kiểm tra độ dài và kiểu dữ liệu số nguyên</t>
+  </si>
+  <si>
+    <t>Điều kiện độ dài</t>
+  </si>
+  <si>
+    <t>1 ≤ độ dài ≤ 10</t>
+  </si>
+  <si>
+    <t>10 &lt; độ dài &lt; 20</t>
+  </si>
+  <si>
+    <t>20 ≤ độ dài ≤ 30</t>
+  </si>
+  <si>
+    <t>Độ dài &lt; 1</t>
+  </si>
+  <si>
+    <t>Độ dài &gt; 30</t>
+  </si>
+  <si>
+    <t>Trường nhập: Chuỗi số nguyên</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giá trị test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(rỗng)</t>
+    </r>
+  </si>
+  <si>
+    <t>Giá trị test 2: 12345</t>
+  </si>
+  <si>
+    <t>Giá trị test 3: 123456789012</t>
+  </si>
+  <si>
+    <t>Giá trị test 4: 12345678901234567890</t>
+  </si>
+  <si>
+    <t>Giá trị test 5: 1234567890123456789012345678901</t>
+  </si>
+  <si>
+    <t>Giá trị test 6: 12A45</t>
+  </si>
+  <si>
+    <t>(rỗng)</t>
+  </si>
+  <si>
+    <t>Hệ thống chấp nhận</t>
+  </si>
+  <si>
+    <t>12A45</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi có độ dài &lt; 1</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi số nguyên độ dài 1–10</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi số nguyên độ dài &gt;10 và &lt;20</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi số nguyên độ dài 20–30</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi số nguyên độ dài &gt;30</t>
+  </si>
+  <si>
+    <t>Nhập không phải số nguyên</t>
+  </si>
+  <si>
+    <t>Xây dựng tập dữ liệu thử (file) cho chương trình thống kê điểm sinh viên theo phân vùng</t>
+  </si>
+  <si>
+    <t>Chương trình đọc file theo từng dòng: **Tên</t>
+  </si>
+  <si>
+    <t>File tối đa 100 dòng</t>
+  </si>
+  <si>
+    <t>Quy định dữ liệu: Tên ≤ 20 ký tự, Giới tính 1 ký tự, Điểm mỗi môn 0–10</t>
+  </si>
+  <si>
+    <t>Giá trị test 1 (hợp lệ – 5 dòng): DL01–DL05</t>
+  </si>
+  <si>
+    <t>Giá trị test 2 (file rỗng): File 0 dòng</t>
+  </si>
+  <si>
+    <t>Giá trị test 3 (file &gt;100 dòng): File 101 dòng</t>
+  </si>
+  <si>
+    <t>Giá trị test 4 (tên lỗi): DL06 hoặc DL07</t>
+  </si>
+  <si>
+    <t>Giá trị test 5 (giới tính lỗi): DL08 hoặc DL09</t>
+  </si>
+  <si>
+    <t>Giá trị test 6 (điểm ngoài [0–10]): DL10 hoặc DL11</t>
+  </si>
+  <si>
+    <t>Giá trị test 7 (điểm không phải số): DL12</t>
+  </si>
+  <si>
+    <t>Trường nhập: File dữ liệu sinh viên (tối đa 100 dòng)</t>
+  </si>
+  <si>
+    <t>Vùng 7</t>
+  </si>
+  <si>
+    <t>File có 1–100 dòng, đúng định dạng và dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>File rỗng (0 dòng)</t>
+  </si>
+  <si>
+    <t>File &gt; 100 dòng</t>
+  </si>
+  <si>
+    <t>Tên rỗng hoặc tên &gt; 20 ký tự</t>
+  </si>
+  <si>
+    <t>Giới tính không hợp lệ (khác “M/F” hoặc không đúng 1 ký tự)</t>
+  </si>
+  <si>
+    <t>Có điểm &lt; 0 hoặc điểm &gt; 10</t>
+  </si>
+  <si>
+    <t>Có điểm không phải số</t>
+  </si>
+  <si>
+    <t>Nhập file hợp lệ (1–100 dòng, dữ liệu đúng)</t>
+  </si>
+  <si>
+    <t>DL01–DL05</t>
+  </si>
+  <si>
+    <t>Tính TB từng SV, TB theo giới tính &amp; theo môn, đếm SV lên lớp đúng</t>
+  </si>
+  <si>
+    <t>Nhập file rỗng</t>
+  </si>
+  <si>
+    <t>File 0 dòng</t>
+  </si>
+  <si>
+    <t>Hệ thống báo lỗi (không có dữ liệu để thống kê)</t>
+  </si>
+  <si>
+    <t>Nhập file &gt; 100 dòng</t>
+  </si>
+  <si>
+    <t>File 101 dòng</t>
+  </si>
+  <si>
+    <t>Hệ thống báo lỗi (vượt quá giới hạn 100 dòng)</t>
+  </si>
+  <si>
+    <t>Dòng có tên rỗng hoặc &gt;20 ký tự</t>
+  </si>
+  <si>
+    <t>DL06 / DL07</t>
+  </si>
+  <si>
+    <t>Hệ thống báo lỗi dòng dữ liệu không hợp lệ</t>
+  </si>
+  <si>
+    <t>Dòng có giới tính không hợp lệ</t>
+  </si>
+  <si>
+    <t>DL08 / DL09</t>
+  </si>
+  <si>
+    <t>Dòng có điểm &lt;0 hoặc &gt;10</t>
+  </si>
+  <si>
+    <t>DL10 / DL11</t>
+  </si>
+  <si>
+    <t>Dòng có điểm không phải số</t>
+  </si>
+  <si>
+    <t>DL12</t>
   </si>
 </sst>
 </file>
@@ -742,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -769,16 +976,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -804,6 +1005,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,68 +1385,68 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="5:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="5:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="5:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="5:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="5:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="5:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="8">
         <v>46028</v>
       </c>
@@ -1241,7 +1457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="5:12" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="J18" s="6">
         <v>5</v>
       </c>
@@ -1469,66 +1685,66 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="7:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="7:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="7:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="8">
         <v>46028</v>
       </c>
@@ -1546,10 +1762,10 @@
       <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1589,7 +1805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="7:13" ht="33" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="L18" s="6">
         <v>4</v>
       </c>
@@ -1681,7 +1897,7 @@
       <c r="H28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="13">
         <v>12345</v>
       </c>
       <c r="J28" s="7" t="s">
@@ -1695,7 +1911,7 @@
       <c r="H29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="13">
         <v>1234567</v>
       </c>
       <c r="J29" s="7" t="s">
@@ -1709,7 +1925,7 @@
       <c r="H30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="13">
         <v>12345678901</v>
       </c>
       <c r="J30" s="7" t="s">
@@ -1723,7 +1939,7 @@
       <c r="H31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="13" t="s">
         <v>68</v>
       </c>
       <c r="J31" s="7" t="s">
@@ -1766,66 +1982,66 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="5:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="5:12" ht="33" x14ac:dyDescent="0.2">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="8">
         <v>46028</v>
       </c>
@@ -1917,116 +2133,116 @@
       </c>
     </row>
     <row r="20" spans="5:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="5:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="5:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>0.39583333333333331</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="5:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="5:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="17">
         <v>0.8125</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="5:13" ht="33" x14ac:dyDescent="0.2">
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2051,7 +2267,7 @@
       <c r="F28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>0.33333333333333331</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -2065,7 +2281,7 @@
       <c r="F29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>0.41666666666666669</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -2079,7 +2295,7 @@
       <c r="F30" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>0.75</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -2093,7 +2309,7 @@
       <c r="F31" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>0.83333333333333337</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -2107,7 +2323,7 @@
       <c r="F32" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>1.0416666666666667</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -2150,66 +2366,66 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="6:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="20" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="6:13" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="F9" s="9" t="s">
+    <row r="9" spans="6:13" ht="33" x14ac:dyDescent="0.2">
+      <c r="F9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="6:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="8">
         <v>46028</v>
       </c>
@@ -2221,16 +2437,16 @@
       </c>
     </row>
     <row r="13" spans="6:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2317,16 +2533,16 @@
       </c>
     </row>
     <row r="23" spans="6:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2358,7 +2574,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="6:12" ht="33" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
@@ -2372,7 +2588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="6:12" ht="33" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F27" s="7" t="s">
         <v>44</v>
       </c>
@@ -2414,21 +2630,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="6:12" ht="33" x14ac:dyDescent="0.2">
-      <c r="F31" s="14" t="s">
+    <row r="31" spans="6:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="6:12" ht="33" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F32" s="7" t="s">
         <v>22</v>
       </c>
@@ -2442,7 +2658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="6:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F33" s="7" t="s">
         <v>25</v>
       </c>
@@ -2456,7 +2672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="6:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F34" s="7" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="6:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F35" s="7" t="s">
         <v>31</v>
       </c>
@@ -2484,7 +2700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F36" s="7" t="s">
         <v>94</v>
       </c>
@@ -2498,7 +2714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="6:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F37" s="7" t="s">
         <v>141</v>
       </c>
@@ -2512,7 +2728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="6:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F38" s="7" t="s">
         <v>142</v>
       </c>
@@ -2528,14 +2744,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2545,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78AED94-1D7D-4509-8AB1-A6E0B3E3D935}">
   <dimension ref="E6:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2562,66 +2778,66 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="5:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="5:12" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="8">
         <v>46028</v>
       </c>
@@ -2637,16 +2853,16 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="5:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2717,16 +2933,16 @@
       </c>
     </row>
     <row r="21" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2744,7 +2960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="66" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:11" ht="33" x14ac:dyDescent="0.2">
       <c r="E23" s="7" t="s">
         <v>39</v>
       </c>
@@ -2758,7 +2974,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:11" ht="33" x14ac:dyDescent="0.2">
       <c r="E24" s="7" t="s">
         <v>42</v>
       </c>
@@ -2800,7 +3016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E28" s="5" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +3044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="5:11" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:11" ht="33" x14ac:dyDescent="0.2">
       <c r="E30" s="7" t="s">
         <v>25</v>
       </c>
@@ -2856,32 +3072,797 @@
         <v>176</v>
       </c>
     </row>
+    <row r="32" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="7">
+        <v>35</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C607AB5A-D0D0-4634-BC26-290F8F9F406A}">
+  <dimension ref="E6:L32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="43.5" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1"/>
+    <col min="11" max="11" width="35.625" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="5:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="8">
+        <v>46028</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="11">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17" s="11">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="11">
+        <v>5</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="11">
+        <v>6</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="11">
+        <v>7</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="7">
+        <v>12345</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="7">
+        <v>123456789012</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1.23456789012345E+19</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.23456789012345E+30</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="32" spans="5:11" ht="33" x14ac:dyDescent="0.2">
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="7">
-        <v>35</v>
+        <v>204</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="5:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="E33" s="7" t="s">
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90A057F-09B1-436B-9828-7554B588DD43}">
+  <dimension ref="E6:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="37.375" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="34.125" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="5:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="E11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="8">
+        <v>46028</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J15" s="11">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="J17" s="11">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="J18" s="11">
+        <v>5</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="J19" s="11">
+        <v>6</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="J20" s="11">
+        <v>7</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="J21" s="11">
+        <v>8</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="E28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="E32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="E35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="E36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="E37" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>24</v>
+      <c r="F37" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="E38" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="E39" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
